--- a/Documentação/Planilhas/Orders_Web_Relacionamentos.xlsx
+++ b/Documentação/Planilhas/Orders_Web_Relacionamentos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pedidos Web" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="86">
   <si>
     <t>Compra</t>
   </si>
@@ -263,6 +263,123 @@
   </si>
   <si>
     <t>IdSkuPai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select 
+c.IdCompra,
+c.IdCliente, 
+c.IdAdministradorTelevenda, 
+c.IdAfiliado, 
+c.Midia, 
+c.Parceiro, 
+c.Campanha, 
+c.PalavraChave, 
+c.Origem, 
+c.Data, 
+c._ValorTotalComDesconto, 
+c.IdListaDeCompra, 
+c.IdCanalVenda, 
+c.UserAgent,
+ce.IdCompraEntregaStatus,
+ce.GerencialId,
+ce.IdCompraEntrega,
+ce.DataPrevisao,
+ce.IdFreteEntregaTipo,
+ce.CnpjRedespacho,
+ces.IdSku,
+ces.ValorVendaUnidadeSemDesconto,
+ces.ValorCupomNominal,
+ces.ValorVendaUnidadeMenosCupomNominal, --ValorVendaUnidadeMenosCupomFiscal,
+ces.ValorFreteComDesconto,
+ces.ValorFrete,
+ces.IdCompraEntregaSkuPai,
+cess.IdCompraEntregaSku,
+cess.IdSkuServico,
+cess.ValorVenda,
+cess.ValorVendaSemDesconto
+from Compra c
+inner join CompraEntrega ce
+on c.IdCompra = ce.IdCompra
+inner join CompraEntregaSku ces
+on ce.IdCompraEntrega = ces.IdCompraEntrega
+inner join CompraEntregaSkuServico cess
+on ces.IdCompraEntregaSku = cess.IdCompraEntregaSku
+where convert(date,c.data) &gt;= '20150101'
+order by c.Data 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select 
+cfp.IdCompra,
+cfp.IdCompraFormaPagamentoStatus,
+cfp.IdFormaPagamento,
+cfp.Estado,
+cfp.Municipio,
+cfp.Pais,
+cfp.QuantidadeParcelas,
+cfp.ValorComJuros,
+cfp.ValorJuros,
+cfp.CodigoCiclo,
+cfp.TipoJuros,
+cfp.Data,
+cfps.Nome as Nome_Status,
+fp.Nome as Nome_FP,
+fp.Tipo
+from CompraFormaPagamento cfp
+inner join Compra c
+on cfp.IdCompra = c.IdCompra
+inner join CompraFormaPagamentoStatus cfps
+on cfp.IdCompraFormaPagamentoStatus = cfps.IdCompraFormaPagamentoStatus
+inner join FormaPagamento fp
+on cfp.IdFormaPagamento = fp.IdFormaPagamento
+where convert(date,cfp.data) &gt;= '20150101'
+order by cfp.Data 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select 
+cee.IdCompra,
+cee.NomeDestinatario,
+cee.TelefoneResidencial,
+cee.TelefoneCelular,
+cee.TelefoneComercial,
+cee.Rua,
+cee.Numero,
+cee.Complemento,
+cee.Bairro,
+cee.Municipio,
+cee.Estado,
+cee.Cep,
+cee.Pais,
+cee.PontoReferencia,
+cee.Identificacao,
+cee.Tipo
+from CompraEnderecoEntrega cee
+inner join Compra c
+on cee.IdCompra = c.IdCompra
+and convert(date,c.data) &gt;= '20140101'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select distinct 
+ce.IdCompra,
+ce.IdCompraEntrega,
+ce.IdFreteEntregaTipo,
+ce.CnpjRedespacho,
+c.Data,
+ces.IdCompraEntrega,
+ces.IdCompraEntregaSku,
+ces.IdCompraEntregaSkuPai,
+skf.IdSku
+from CompraEntrega ce
+inner join Compra c
+on ce.IdCompra = c.IdCompra
+inner join CompraEntregaSku ces
+on ce.IdCompraEntrega = ces.IdCompraEntrega
+inner join SkukitFilho skf
+on ces.IdSku = skf.IdSku
+where convert(date,c.data) &gt;= '20150101'
+</t>
   </si>
 </sst>
 </file>
@@ -388,12 +505,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -408,6 +522,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -417,9 +537,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -734,203 +867,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="4" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -938,107 +1071,700 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="4" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="5" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="1" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1">
+      <c r="B37" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+    </row>
+    <row r="123" spans="2:4">
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+    </row>
+    <row r="124" spans="2:4">
+      <c r="B124" s="17"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+    </row>
+    <row r="125" spans="2:4">
+      <c r="B125" s="17"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="B127" s="17"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+    </row>
+    <row r="128" spans="2:4">
+      <c r="B128" s="17"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+    </row>
+    <row r="129" spans="2:4">
+      <c r="B129" s="17"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+    </row>
+    <row r="130" spans="2:4">
+      <c r="B130" s="17"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="B131" s="17"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+    </row>
+    <row r="132" spans="2:4">
+      <c r="B132" s="17"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+    </row>
+    <row r="133" spans="2:4">
+      <c r="B133" s="17"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+    </row>
+    <row r="134" spans="2:4">
+      <c r="B134" s="17"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+    </row>
+    <row r="135" spans="2:4">
+      <c r="B135" s="17"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
+    </row>
+    <row r="136" spans="2:4">
+      <c r="B136" s="17"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
+    </row>
+    <row r="137" spans="2:4">
+      <c r="B137" s="17"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
+    </row>
+    <row r="138" spans="2:4">
+      <c r="B138" s="17"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+    </row>
+    <row r="139" spans="2:4">
+      <c r="B139" s="17"/>
+      <c r="C139" s="17"/>
+      <c r="D139" s="17"/>
+    </row>
+    <row r="140" spans="2:4">
+      <c r="B140" s="17"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
+    </row>
+    <row r="141" spans="2:4">
+      <c r="B141" s="17"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+    </row>
+    <row r="142" spans="2:4">
+      <c r="B142" s="17"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+    </row>
+    <row r="143" spans="2:4">
+      <c r="B143" s="17"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+    </row>
+    <row r="144" spans="2:4">
+      <c r="B144" s="17"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="B145" s="17"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" s="17"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="B147" s="17"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="B148" s="17"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
+    </row>
+    <row r="149" spans="2:4">
+      <c r="B149" s="17"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" s="17"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="17"/>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="B151" s="17"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="17"/>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" s="17"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="B153" s="17"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+    </row>
+    <row r="154" spans="2:4">
+      <c r="B154" s="17"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B37:D86"/>
     <mergeCell ref="A2:A35"/>
     <mergeCell ref="B2:B15"/>
     <mergeCell ref="C2:C15"/>
@@ -1056,10 +1782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1067,193 +1793,451 @@
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="4" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="9" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="9" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="9" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="9" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="9" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="9" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="9" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="9" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="9" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="9"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1">
+      <c r="B22" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B22:D54"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="C2:C13"/>
@@ -1269,10 +2253,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1280,174 +2264,462 @@
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="9" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="9" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="9" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="9" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="9" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="9" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="9" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="9" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="9" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="9" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="9" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="9" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="9" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="9" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="9" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1">
+      <c r="B20" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="C2:C17"/>
+    <mergeCell ref="B20:D44"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1456,10 +2728,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1467,139 +2739,282 @@
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="4" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="9" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="9" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="9" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="5" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="9" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="9" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="9" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B15:D42"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="B12:B13"/>

--- a/Documentação/Planilhas/Orders_Web_Relacionamentos.xlsx
+++ b/Documentação/Planilhas/Orders_Web_Relacionamentos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Pedidos Web" sheetId="1" r:id="rId1"/>
@@ -525,6 +525,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,18 +551,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:D86"/>
     </sheetView>
   </sheetViews>
@@ -881,13 +881,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -895,115 +895,115 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1011,59 +1011,59 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1071,75 +1071,75 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -1147,620 +1147,620 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1">
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
     </row>
     <row r="63" spans="2:4">
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
     </row>
     <row r="67" spans="2:4">
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
     </row>
     <row r="72" spans="2:4">
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
     </row>
     <row r="73" spans="2:4">
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
     </row>
     <row r="78" spans="2:4">
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
     </row>
     <row r="79" spans="2:4">
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
     </row>
     <row r="80" spans="2:4">
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
     </row>
     <row r="81" spans="2:4">
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
     </row>
     <row r="82" spans="2:4">
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
     </row>
     <row r="83" spans="2:4">
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
     </row>
     <row r="84" spans="2:4">
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
     </row>
     <row r="85" spans="2:4">
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
     </row>
     <row r="86" spans="2:4">
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
     </row>
     <row r="87" spans="2:4">
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
     </row>
     <row r="89" spans="2:4">
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
     </row>
     <row r="90" spans="2:4">
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
     </row>
     <row r="91" spans="2:4">
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
     </row>
     <row r="92" spans="2:4">
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
     </row>
     <row r="93" spans="2:4">
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
     </row>
     <row r="94" spans="2:4">
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
     </row>
     <row r="95" spans="2:4">
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
     </row>
     <row r="96" spans="2:4">
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
     </row>
     <row r="97" spans="2:4">
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
     </row>
     <row r="98" spans="2:4">
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
     </row>
     <row r="99" spans="2:4">
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
     </row>
     <row r="101" spans="2:4">
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
     </row>
     <row r="102" spans="2:4">
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
     </row>
     <row r="103" spans="2:4">
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
     </row>
     <row r="104" spans="2:4">
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
     </row>
     <row r="105" spans="2:4">
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
     </row>
     <row r="106" spans="2:4">
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
     </row>
     <row r="107" spans="2:4">
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
     </row>
     <row r="108" spans="2:4">
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
     </row>
     <row r="110" spans="2:4">
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
     </row>
     <row r="111" spans="2:4">
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
     </row>
     <row r="112" spans="2:4">
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
     </row>
     <row r="113" spans="2:4">
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
     </row>
     <row r="114" spans="2:4">
-      <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
     </row>
     <row r="115" spans="2:4">
-      <c r="B115" s="17"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
     </row>
     <row r="116" spans="2:4">
-      <c r="B116" s="17"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
     </row>
     <row r="117" spans="2:4">
-      <c r="B117" s="17"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
     </row>
     <row r="118" spans="2:4">
-      <c r="B118" s="17"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
     </row>
     <row r="119" spans="2:4">
-      <c r="B119" s="17"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
     </row>
     <row r="120" spans="2:4">
-      <c r="B120" s="17"/>
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
     </row>
     <row r="121" spans="2:4">
-      <c r="B121" s="17"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
     </row>
     <row r="122" spans="2:4">
-      <c r="B122" s="17"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
     </row>
     <row r="123" spans="2:4">
-      <c r="B123" s="17"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
     </row>
     <row r="124" spans="2:4">
-      <c r="B124" s="17"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
     </row>
     <row r="125" spans="2:4">
-      <c r="B125" s="17"/>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
     </row>
     <row r="126" spans="2:4">
-      <c r="B126" s="17"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
     </row>
     <row r="127" spans="2:4">
-      <c r="B127" s="17"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
     </row>
     <row r="128" spans="2:4">
-      <c r="B128" s="17"/>
-      <c r="C128" s="17"/>
-      <c r="D128" s="17"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
     </row>
     <row r="129" spans="2:4">
-      <c r="B129" s="17"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
     </row>
     <row r="130" spans="2:4">
-      <c r="B130" s="17"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
     </row>
     <row r="131" spans="2:4">
-      <c r="B131" s="17"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
     </row>
     <row r="132" spans="2:4">
-      <c r="B132" s="17"/>
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
     </row>
     <row r="133" spans="2:4">
-      <c r="B133" s="17"/>
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
     </row>
     <row r="134" spans="2:4">
-      <c r="B134" s="17"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
     </row>
     <row r="135" spans="2:4">
-      <c r="B135" s="17"/>
-      <c r="C135" s="17"/>
-      <c r="D135" s="17"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
     </row>
     <row r="136" spans="2:4">
-      <c r="B136" s="17"/>
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
     </row>
     <row r="137" spans="2:4">
-      <c r="B137" s="17"/>
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
     </row>
     <row r="138" spans="2:4">
-      <c r="B138" s="17"/>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
     </row>
     <row r="139" spans="2:4">
-      <c r="B139" s="17"/>
-      <c r="C139" s="17"/>
-      <c r="D139" s="17"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
     </row>
     <row r="140" spans="2:4">
-      <c r="B140" s="17"/>
-      <c r="C140" s="17"/>
-      <c r="D140" s="17"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
     </row>
     <row r="141" spans="2:4">
-      <c r="B141" s="17"/>
-      <c r="C141" s="17"/>
-      <c r="D141" s="17"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
     </row>
     <row r="142" spans="2:4">
-      <c r="B142" s="17"/>
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
     </row>
     <row r="143" spans="2:4">
-      <c r="B143" s="17"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
     </row>
     <row r="144" spans="2:4">
-      <c r="B144" s="17"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
     </row>
     <row r="145" spans="2:4">
-      <c r="B145" s="17"/>
-      <c r="C145" s="17"/>
-      <c r="D145" s="17"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
     </row>
     <row r="146" spans="2:4">
-      <c r="B146" s="17"/>
-      <c r="C146" s="17"/>
-      <c r="D146" s="17"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
     </row>
     <row r="147" spans="2:4">
-      <c r="B147" s="17"/>
-      <c r="C147" s="17"/>
-      <c r="D147" s="17"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
     </row>
     <row r="148" spans="2:4">
-      <c r="B148" s="17"/>
-      <c r="C148" s="17"/>
-      <c r="D148" s="17"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
     </row>
     <row r="149" spans="2:4">
-      <c r="B149" s="17"/>
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
     </row>
     <row r="150" spans="2:4">
-      <c r="B150" s="17"/>
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
     </row>
     <row r="151" spans="2:4">
-      <c r="B151" s="17"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
     </row>
     <row r="152" spans="2:4">
-      <c r="B152" s="17"/>
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
     </row>
     <row r="153" spans="2:4">
-      <c r="B153" s="17"/>
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
     </row>
     <row r="154" spans="2:4">
-      <c r="B154" s="17"/>
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1811,13 +1811,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1825,95 +1825,95 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="11"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="5" t="s">
         <v>56</v>
       </c>
@@ -1925,11 +1925,11 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1937,19 +1937,19 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="15" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1957,283 +1957,283 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
     </row>
     <row r="63" spans="2:4">
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
     </row>
     <row r="67" spans="2:4">
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
     </row>
     <row r="72" spans="2:4">
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2255,7 +2255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -2282,13 +2282,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="18" t="s">
         <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2296,127 +2296,127 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="11"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="11"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="11"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="11"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="11"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="10" t="s">
         <v>76</v>
       </c>
@@ -2428,291 +2428,291 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
     </row>
     <row r="63" spans="2:4">
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
     </row>
     <row r="67" spans="2:4">
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
     </row>
     <row r="72" spans="2:4">
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
     </row>
     <row r="73" spans="2:4">
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2757,13 +2757,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2771,35 +2771,35 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2807,19 +2807,19 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="11"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2827,35 +2827,35 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -2863,167 +2863,167 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="B15:D42"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
